--- a/SleepTransformer_mice/RESULTS_ST.xlsx
+++ b/SleepTransformer_mice/RESULTS_ST.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javig\Documents\Drive\DTU\MASTER THESIS\Code\EEG_scoring\SleepTransformer_mice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899A2E94-712F-4C7A-8E56-F6737E2FFE88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86FC7FAA-6DF1-4710-9D06-5B38C7CB2220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{CD7BA178-FF3A-4017-9B4C-FE42D6DDE108}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="41">
   <si>
     <t>Accuracy</t>
   </si>
@@ -66,12 +66,6 @@
     <t>Evaluate</t>
   </si>
   <si>
-    <t>Confusion matrices</t>
-  </si>
-  <si>
-    <t>Test 1</t>
-  </si>
-  <si>
     <t>WAKE</t>
   </si>
   <si>
@@ -151,6 +145,22 @@
   </si>
   <si>
     <t>SPINDLE scorer 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARTIFACT </t>
+  </si>
+  <si>
+    <t>Kornum lab</t>
+  </si>
+  <si>
+    <t>test2 CPU
+(evaluation with artifacts filtered)</t>
+  </si>
+  <si>
+    <t>SPINDLE (CNN1 + HMM)</t>
+  </si>
+  <si>
+    <t>SPINDLE average</t>
   </si>
 </sst>
 </file>
@@ -161,7 +171,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +195,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -194,7 +211,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -360,11 +377,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -436,6 +464,72 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -445,41 +539,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -787,7 +872,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -795,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5596961F-1C6A-43C9-8885-B0287C7F09DE}">
-  <dimension ref="A1:AS47"/>
+  <dimension ref="A1:AS74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30:S34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -834,13 +919,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>8</v>
@@ -862,34 +947,34 @@
         <v>4</v>
       </c>
       <c r="K4" s="1"/>
-      <c r="N4" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="O4" s="55"/>
-      <c r="P4" s="55"/>
-      <c r="Q4" s="55"/>
+      <c r="N4" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="O4" s="77"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="77"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="59">
+      <c r="A5" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="79">
         <v>22120</v>
       </c>
-      <c r="D5" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="59">
+      <c r="D5" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="79">
         <v>0.86799999999999999</v>
       </c>
-      <c r="F5" s="60">
+      <c r="F5" s="80">
         <v>0.74309999999999998</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5" s="18">
         <v>0.9536</v>
@@ -902,27 +987,27 @@
       </c>
       <c r="K5" s="9"/>
       <c r="N5" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="60"/>
+      <c r="A6" s="78"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="80"/>
       <c r="G6" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" s="21">
         <v>0.84089999999999998</v>
@@ -934,11 +1019,11 @@
         <v>0.87190000000000001</v>
       </c>
       <c r="K6" s="11"/>
-      <c r="L6" s="56" t="s">
-        <v>14</v>
+      <c r="L6" s="70" t="s">
+        <v>12</v>
       </c>
       <c r="M6" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N6" s="12">
         <v>100794</v>
@@ -954,12 +1039,12 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="60"/>
+      <c r="A7" s="78"/>
+      <c r="B7" s="79"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="78"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="80"/>
       <c r="G7" s="10" t="s">
         <v>5</v>
       </c>
@@ -973,9 +1058,9 @@
         <v>0.43030000000000002</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="57"/>
+      <c r="L7" s="71"/>
       <c r="M7" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N7" s="4">
         <v>10489</v>
@@ -991,26 +1076,26 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="53"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="A8" s="78"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H8" s="24">
         <v>0</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" s="26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8" s="11"/>
-      <c r="L8" s="57"/>
+      <c r="L8" s="71"/>
       <c r="M8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1028,15 +1113,15 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="53"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
-      <c r="L9" s="58"/>
+      <c r="A9" s="78"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="78"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="80"/>
+      <c r="L9" s="72"/>
       <c r="M9" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N9" s="15">
         <v>526</v>
@@ -1057,13 +1142,13 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>8</v>
@@ -1085,34 +1170,34 @@
         <v>4</v>
       </c>
       <c r="K12" s="1"/>
-      <c r="N12" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
+      <c r="N12" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="77"/>
+      <c r="P12" s="77"/>
+      <c r="Q12" s="77"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="53" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="59">
+      <c r="A13" s="78" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="79">
         <v>35300</v>
       </c>
-      <c r="D13" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="59">
+      <c r="D13" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="79">
         <v>0.85750000000000004</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="80">
         <v>0.72350000000000003</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H13" s="18">
         <v>0.94789999999999996</v>
@@ -1125,27 +1210,27 @@
       </c>
       <c r="K13" s="9"/>
       <c r="N13" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O13" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P13" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Q13" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:17" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
+      <c r="A14" s="78"/>
+      <c r="B14" s="79"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="80"/>
       <c r="G14" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" s="21">
         <v>0.80910000000000004</v>
@@ -1157,11 +1242,11 @@
         <v>0.85060000000000002</v>
       </c>
       <c r="K14" s="11"/>
-      <c r="L14" s="56" t="s">
-        <v>14</v>
+      <c r="L14" s="70" t="s">
+        <v>12</v>
       </c>
       <c r="M14" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N14" s="12">
         <v>100193</v>
@@ -1177,12 +1262,12 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="53"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="60"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="78"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="80"/>
       <c r="G15" s="10" t="s">
         <v>5</v>
       </c>
@@ -1196,9 +1281,9 @@
         <v>0.49690000000000001</v>
       </c>
       <c r="K15" s="11"/>
-      <c r="L15" s="57"/>
+      <c r="L15" s="71"/>
       <c r="M15" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N15" s="4">
         <v>12555</v>
@@ -1214,14 +1299,14 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="60"/>
+      <c r="A16" s="78"/>
+      <c r="B16" s="79"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="78"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H16" s="24">
         <v>5.1999999999999998E-3</v>
@@ -1233,7 +1318,7 @@
         <v>0.01</v>
       </c>
       <c r="K16" s="11"/>
-      <c r="L16" s="57"/>
+      <c r="L16" s="71"/>
       <c r="M16" s="6" t="s">
         <v>5</v>
       </c>
@@ -1251,15 +1336,15 @@
       </c>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
-      <c r="L17" s="58"/>
+      <c r="A17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="80"/>
+      <c r="L17" s="72"/>
       <c r="M17" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N17" s="15">
         <v>527</v>
@@ -1276,13 +1361,13 @@
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>8</v>
@@ -1304,34 +1389,34 @@
         <v>4</v>
       </c>
       <c r="K20" s="1"/>
-      <c r="N20" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="O20" s="55"/>
-      <c r="P20" s="55"/>
-      <c r="Q20" s="55"/>
+      <c r="N20" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="O20" s="77"/>
+      <c r="P20" s="77"/>
+      <c r="Q20" s="77"/>
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A21" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="53" t="s">
+      <c r="A21" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="53">
+      <c r="B21" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="78">
         <v>20862</v>
       </c>
-      <c r="D21" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E21" s="54">
+      <c r="D21" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="68">
         <v>0.921219822109276</v>
       </c>
-      <c r="F21" s="54">
+      <c r="F21" s="68">
         <v>0.85429564318546802</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H21" s="27">
         <v>0.97822035100998195</v>
@@ -1344,27 +1429,27 @@
       </c>
       <c r="K21" s="9"/>
       <c r="N21" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P21" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Q21" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A22" s="53"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
+      <c r="A22" s="78"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
       <c r="G22" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H22" s="30">
         <v>0.86888338469514104</v>
@@ -1376,11 +1461,11 @@
         <v>0.908792408781112</v>
       </c>
       <c r="K22" s="11"/>
-      <c r="L22" s="56" t="s">
-        <v>14</v>
+      <c r="L22" s="70" t="s">
+        <v>12</v>
       </c>
       <c r="M22" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N22" s="12">
         <v>103393</v>
@@ -1396,12 +1481,12 @@
       </c>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="A23" s="78"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="78"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
       <c r="G23" s="10" t="s">
         <v>5</v>
       </c>
@@ -1415,9 +1500,9 @@
         <v>0.67011092539127803</v>
       </c>
       <c r="K23" s="11"/>
-      <c r="L23" s="57"/>
+      <c r="L23" s="71"/>
       <c r="M23" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N23" s="4">
         <v>3717</v>
@@ -1433,26 +1518,26 @@
       </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A24" s="53"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
+      <c r="A24" s="78"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
       <c r="G24" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H24" s="33">
         <v>0</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K24" s="11"/>
-      <c r="L24" s="57"/>
+      <c r="L24" s="71"/>
       <c r="M24" s="6" t="s">
         <v>5</v>
       </c>
@@ -1470,15 +1555,15 @@
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A25" s="53"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="L25" s="58"/>
+      <c r="A25" s="78"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="68"/>
+      <c r="L25" s="72"/>
       <c r="M25" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N25" s="15">
         <v>501</v>
@@ -1494,61 +1579,61 @@
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="E28" s="47" t="s">
+      <c r="E28" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
+      <c r="I28" s="74"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="74"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
+      <c r="P28" s="74"/>
+      <c r="Q28" s="75"/>
+      <c r="S28" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="T28" s="74"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="74"/>
+      <c r="Z28" s="74"/>
+      <c r="AA28" s="74"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="75"/>
+      <c r="AG28" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="48"/>
-      <c r="G28" s="48"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="48"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="P28" s="48"/>
-      <c r="Q28" s="49"/>
-      <c r="S28" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="Z28" s="48"/>
-      <c r="AA28" s="48"/>
-      <c r="AB28" s="48"/>
-      <c r="AC28" s="48"/>
-      <c r="AD28" s="48"/>
-      <c r="AE28" s="49"/>
-      <c r="AG28" s="47" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH28" s="48"/>
-      <c r="AI28" s="48"/>
-      <c r="AJ28" s="48"/>
-      <c r="AK28" s="48"/>
-      <c r="AL28" s="48"/>
-      <c r="AM28" s="48"/>
-      <c r="AN28" s="48"/>
-      <c r="AO28" s="48"/>
-      <c r="AP28" s="48"/>
-      <c r="AQ28" s="48"/>
-      <c r="AR28" s="48"/>
-      <c r="AS28" s="49"/>
+      <c r="AH28" s="74"/>
+      <c r="AI28" s="74"/>
+      <c r="AJ28" s="74"/>
+      <c r="AK28" s="74"/>
+      <c r="AL28" s="74"/>
+      <c r="AM28" s="74"/>
+      <c r="AN28" s="74"/>
+      <c r="AO28" s="74"/>
+      <c r="AP28" s="74"/>
+      <c r="AQ28" s="74"/>
+      <c r="AR28" s="74"/>
+      <c r="AS28" s="75"/>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>8</v>
@@ -1570,12 +1655,12 @@
         <v>4</v>
       </c>
       <c r="K29" s="1"/>
-      <c r="N29" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="O29" s="50"/>
-      <c r="P29" s="50"/>
-      <c r="Q29" s="50"/>
+      <c r="N29" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="O29" s="81"/>
+      <c r="P29" s="81"/>
+      <c r="Q29" s="81"/>
       <c r="S29" s="43" t="s">
         <v>0</v>
       </c>
@@ -1593,12 +1678,12 @@
         <v>4</v>
       </c>
       <c r="Y29" s="1"/>
-      <c r="AB29" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC29" s="50"/>
-      <c r="AD29" s="50"/>
-      <c r="AE29" s="50"/>
+      <c r="AB29" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC29" s="81"/>
+      <c r="AD29" s="81"/>
+      <c r="AE29" s="81"/>
       <c r="AG29" s="43" t="s">
         <v>0</v>
       </c>
@@ -1616,34 +1701,34 @@
         <v>4</v>
       </c>
       <c r="AM29" s="1"/>
-      <c r="AP29" s="50" t="s">
-        <v>15</v>
-      </c>
-      <c r="AQ29" s="50"/>
-      <c r="AR29" s="50"/>
-      <c r="AS29" s="50"/>
+      <c r="AP29" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ29" s="81"/>
+      <c r="AR29" s="81"/>
+      <c r="AS29" s="81"/>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="53">
+      <c r="A30" s="78" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="78">
         <v>42850</v>
       </c>
-      <c r="D30" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E30" s="51">
+      <c r="D30" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E30" s="76">
         <v>0.94802088560964404</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="76">
         <v>0.90300918652195195</v>
       </c>
       <c r="G30" s="44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H30" s="27">
         <v>0.96829556743459999</v>
@@ -1656,25 +1741,25 @@
       </c>
       <c r="K30" s="9"/>
       <c r="N30" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O30" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P30" s="6" t="s">
         <v>5</v>
       </c>
       <c r="Q30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="S30" s="51">
+        <v>11</v>
+      </c>
+      <c r="S30" s="76">
         <v>0.68167824074074101</v>
       </c>
-      <c r="T30" s="51">
+      <c r="T30" s="76">
         <v>0.49239400211042</v>
       </c>
       <c r="U30" s="44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="V30" s="27">
         <v>0.90895102668859795</v>
@@ -1687,25 +1772,25 @@
       </c>
       <c r="Y30" s="9"/>
       <c r="AB30" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC30" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AD30" s="6" t="s">
         <v>5</v>
       </c>
       <c r="AE30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="AG30" s="51">
+        <v>11</v>
+      </c>
+      <c r="AG30" s="76">
         <v>0.71542824074074096</v>
       </c>
-      <c r="AH30" s="51">
+      <c r="AH30" s="76">
         <v>0.54069337936277295</v>
       </c>
       <c r="AI30" s="44" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AJ30" s="27">
         <v>0.91464188838229399</v>
@@ -1718,27 +1803,27 @@
       </c>
       <c r="AM30" s="9"/>
       <c r="AP30" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AQ30" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR30" s="6" t="s">
         <v>5</v>
       </c>
       <c r="AS30" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A31" s="53"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="51"/>
+      <c r="A31" s="78"/>
+      <c r="B31" s="78"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="78"/>
+      <c r="E31" s="76"/>
+      <c r="F31" s="76"/>
       <c r="G31" s="44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H31" s="30">
         <v>0.962587483079404</v>
@@ -1750,11 +1835,11 @@
         <v>0.942606537496122</v>
       </c>
       <c r="K31" s="9"/>
-      <c r="L31" s="52" t="s">
-        <v>14</v>
+      <c r="L31" s="82" t="s">
+        <v>12</v>
       </c>
       <c r="M31" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N31">
         <v>102344</v>
@@ -1768,10 +1853,10 @@
       <c r="Q31" s="5">
         <v>0</v>
       </c>
-      <c r="S31" s="51"/>
-      <c r="T31" s="51"/>
+      <c r="S31" s="76"/>
+      <c r="T31" s="76"/>
       <c r="U31" s="44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="V31" s="30">
         <v>0.73281360737065904</v>
@@ -1783,11 +1868,11 @@
         <v>0.72663387210119501</v>
       </c>
       <c r="Y31" s="9"/>
-      <c r="Z31" s="52" t="s">
-        <v>14</v>
+      <c r="Z31" s="82" t="s">
+        <v>12</v>
       </c>
       <c r="AA31" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AB31">
         <v>34262</v>
@@ -1801,10 +1886,10 @@
       <c r="AE31" s="5">
         <v>0</v>
       </c>
-      <c r="AG31" s="51"/>
-      <c r="AH31" s="51"/>
+      <c r="AG31" s="76"/>
+      <c r="AH31" s="76"/>
       <c r="AI31" s="44" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AJ31" s="30">
         <v>0.731744251261918</v>
@@ -1816,11 +1901,11 @@
         <v>0.81087632069608495</v>
       </c>
       <c r="AM31" s="9"/>
-      <c r="AN31" s="52" t="s">
-        <v>14</v>
+      <c r="AN31" s="82" t="s">
+        <v>12</v>
       </c>
       <c r="AO31" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AP31">
         <v>31696</v>
@@ -1836,12 +1921,12 @@
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A32" s="53"/>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="51"/>
-      <c r="F32" s="51"/>
+      <c r="A32" s="78"/>
+      <c r="B32" s="78"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
       <c r="G32" s="44" t="s">
         <v>5</v>
       </c>
@@ -1855,9 +1940,9 @@
         <v>0.79589802022503897</v>
       </c>
       <c r="K32" s="9"/>
-      <c r="L32" s="52"/>
+      <c r="L32" s="82"/>
       <c r="M32" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N32">
         <v>1727</v>
@@ -1871,8 +1956,8 @@
       <c r="Q32" s="5">
         <v>0</v>
       </c>
-      <c r="S32" s="51"/>
-      <c r="T32" s="51"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
       <c r="U32" s="44" t="s">
         <v>5</v>
       </c>
@@ -1886,9 +1971,9 @@
         <v>0.68931191058330399</v>
       </c>
       <c r="Y32" s="9"/>
-      <c r="Z32" s="52"/>
+      <c r="Z32" s="82"/>
       <c r="AA32" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB32">
         <v>7420</v>
@@ -1902,8 +1987,8 @@
       <c r="AE32" s="5">
         <v>0</v>
       </c>
-      <c r="AG32" s="51"/>
-      <c r="AH32" s="51"/>
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76"/>
       <c r="AI32" s="44" t="s">
         <v>5</v>
       </c>
@@ -1917,9 +2002,9 @@
         <v>0.70828924162257501</v>
       </c>
       <c r="AM32" s="9"/>
-      <c r="AN32" s="52"/>
+      <c r="AN32" s="82"/>
       <c r="AO32" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP32">
         <v>9120</v>
@@ -1935,26 +2020,26 @@
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A33" s="53"/>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="51"/>
-      <c r="F33" s="51"/>
+      <c r="A33" s="78"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="76"/>
+      <c r="F33" s="76"/>
       <c r="G33" s="44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H33" s="33">
         <v>0</v>
       </c>
       <c r="I33" s="34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J33" s="35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K33" s="9"/>
-      <c r="L33" s="52"/>
+      <c r="L33" s="82"/>
       <c r="M33" s="6" t="s">
         <v>5</v>
       </c>
@@ -1970,10 +2055,10 @@
       <c r="Q33" s="5">
         <v>0</v>
       </c>
-      <c r="S33" s="51"/>
-      <c r="T33" s="51"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
       <c r="U33" s="44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="V33" s="33">
         <v>5.2524456700150999E-4</v>
@@ -1985,7 +2070,7 @@
         <v>1.04993765995144E-3</v>
       </c>
       <c r="Y33" s="9"/>
-      <c r="Z33" s="52"/>
+      <c r="Z33" s="82"/>
       <c r="AA33" s="6" t="s">
         <v>5</v>
       </c>
@@ -2001,10 +2086,10 @@
       <c r="AE33" s="5">
         <v>0</v>
       </c>
-      <c r="AG33" s="51"/>
-      <c r="AH33" s="51"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
       <c r="AI33" s="44" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AJ33" s="33">
         <v>6.3967833318102896E-4</v>
@@ -2016,7 +2101,7 @@
         <v>1.2784220619121501E-3</v>
       </c>
       <c r="AM33" s="9"/>
-      <c r="AN33" s="52"/>
+      <c r="AN33" s="82"/>
       <c r="AO33" s="6" t="s">
         <v>5</v>
       </c>
@@ -2034,20 +2119,20 @@
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A34" s="53"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
+      <c r="A34" s="78"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="78"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
-      <c r="L34" s="52"/>
+      <c r="L34" s="82"/>
       <c r="M34" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N34" s="16">
         <v>494</v>
@@ -2061,16 +2146,16 @@
       <c r="Q34" s="17">
         <v>0</v>
       </c>
-      <c r="S34" s="51"/>
-      <c r="T34" s="51"/>
+      <c r="S34" s="76"/>
+      <c r="T34" s="76"/>
       <c r="U34" s="16"/>
       <c r="V34" s="16"/>
       <c r="W34" s="16"/>
       <c r="X34" s="16"/>
       <c r="Y34" s="16"/>
-      <c r="Z34" s="52"/>
+      <c r="Z34" s="82"/>
       <c r="AA34" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB34" s="16">
         <v>8781</v>
@@ -2084,16 +2169,16 @@
       <c r="AE34" s="17">
         <v>8</v>
       </c>
-      <c r="AG34" s="51"/>
-      <c r="AH34" s="51"/>
+      <c r="AG34" s="76"/>
+      <c r="AH34" s="76"/>
       <c r="AI34" s="16"/>
       <c r="AJ34" s="16"/>
       <c r="AK34" s="16"/>
       <c r="AL34" s="16"/>
       <c r="AM34" s="16"/>
-      <c r="AN34" s="52"/>
+      <c r="AN34" s="82"/>
       <c r="AO34" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP34" s="16">
         <v>9759</v>
@@ -2109,332 +2194,1716 @@
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="E37" s="73" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="74"/>
+      <c r="G37" s="74"/>
+      <c r="H37" s="74"/>
+      <c r="I37" s="74"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="74"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="74"/>
+      <c r="N37" s="74"/>
+      <c r="O37" s="74"/>
+      <c r="P37" s="74"/>
+      <c r="Q37" s="75"/>
+      <c r="S37" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="T37" s="74"/>
+      <c r="U37" s="74"/>
+      <c r="V37" s="74"/>
+      <c r="W37" s="74"/>
+      <c r="X37" s="74"/>
+      <c r="Y37" s="74"/>
+      <c r="Z37" s="74"/>
+      <c r="AA37" s="74"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="75"/>
+      <c r="AG37" s="73" t="s">
+        <v>35</v>
+      </c>
+      <c r="AH37" s="74"/>
+      <c r="AI37" s="74"/>
+      <c r="AJ37" s="74"/>
+      <c r="AK37" s="74"/>
+      <c r="AL37" s="74"/>
+      <c r="AM37" s="74"/>
+      <c r="AN37" s="74"/>
+      <c r="AO37" s="74"/>
+      <c r="AP37" s="74"/>
+      <c r="AQ37" s="74"/>
+      <c r="AR37" s="74"/>
+      <c r="AS37" s="75"/>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="J38" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="N38" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="O38" s="81"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="81"/>
+      <c r="S38" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="T38" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="U38" s="1"/>
+      <c r="V38" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="W38" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y38" s="1"/>
+      <c r="AB38" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC38" s="81"/>
+      <c r="AD38" s="81"/>
+      <c r="AE38" s="81"/>
+      <c r="AG38" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="AI38" s="1"/>
+      <c r="AJ38" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="AL38" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM38" s="1"/>
+      <c r="AP38" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ38" s="81"/>
+      <c r="AR38" s="81"/>
+      <c r="AS38" s="81"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A39" s="83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C39" s="78">
+        <v>42850</v>
+      </c>
+      <c r="D39" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="76">
+        <v>0.95096049312632902</v>
+      </c>
+      <c r="F39" s="76">
+        <v>0.90828347400972298</v>
+      </c>
+      <c r="G39" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" s="27">
+        <v>0.96829556743459999</v>
+      </c>
+      <c r="I39" s="28">
+        <v>0.97514125370403903</v>
+      </c>
+      <c r="J39" s="29">
+        <v>0.97170635372754499</v>
+      </c>
+      <c r="K39" s="9"/>
+      <c r="N39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q39" s="6"/>
+      <c r="S39" s="76">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="T39" s="76">
+        <v>0.68530000000000002</v>
+      </c>
+      <c r="U39" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="V39" s="27">
+        <v>0.90895102668859795</v>
+      </c>
+      <c r="W39" s="28">
+        <v>0.80212576672753699</v>
+      </c>
+      <c r="X39" s="29">
+        <v>0.85220376081981897</v>
+      </c>
+      <c r="Y39" s="9"/>
+      <c r="AB39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE39" s="6"/>
+      <c r="AG39" s="76">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="AH39" s="76">
+        <v>0.68030000000000002</v>
+      </c>
+      <c r="AI39" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="AJ39" s="27">
+        <v>0.91464188838229399</v>
+      </c>
+      <c r="AK39" s="28">
+        <v>0.75944029135518498</v>
+      </c>
+      <c r="AL39" s="29">
+        <v>0.82984683859143904</v>
+      </c>
+      <c r="AM39" s="9"/>
+      <c r="AP39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR39" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AS39" s="6"/>
+    </row>
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A40" s="83"/>
+      <c r="B40" s="78"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="78"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="30">
+        <v>0.962587483079404</v>
+      </c>
+      <c r="I40" s="31">
+        <v>0.92439601167180696</v>
+      </c>
+      <c r="J40" s="32">
+        <v>0.94310526055886001</v>
+      </c>
+      <c r="K40" s="9"/>
+      <c r="L40" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="M40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N40">
+        <v>102344</v>
+      </c>
+      <c r="O40">
+        <v>3141</v>
+      </c>
+      <c r="P40">
+        <v>210</v>
+      </c>
+      <c r="Q40" s="5"/>
+      <c r="S40" s="76"/>
+      <c r="T40" s="76"/>
+      <c r="U40" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="V40" s="30">
+        <v>0.73281360737065904</v>
+      </c>
+      <c r="W40" s="31">
+        <v>0.89952153110047905</v>
+      </c>
+      <c r="X40" s="32">
+        <v>0.80765475493067795</v>
+      </c>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB40">
+        <v>34262</v>
+      </c>
+      <c r="AC40">
+        <v>2034</v>
+      </c>
+      <c r="AD40">
+        <v>1398</v>
+      </c>
+      <c r="AE40" s="5"/>
+      <c r="AG40" s="76"/>
+      <c r="AH40" s="76"/>
+      <c r="AI40" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ40" s="30">
+        <v>0.731744251261918</v>
+      </c>
+      <c r="AK40" s="31">
+        <v>0.93443151298119997</v>
+      </c>
+      <c r="AL40" s="32">
+        <v>0.82075961311630097</v>
+      </c>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="82" t="s">
+        <v>12</v>
+      </c>
+      <c r="AO40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="AP40">
+        <v>31696</v>
+      </c>
+      <c r="AQ40">
+        <v>1624</v>
+      </c>
+      <c r="AR40">
+        <v>1334</v>
+      </c>
+      <c r="AS40" s="5"/>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A41" s="83"/>
+      <c r="B41" s="78"/>
+      <c r="C41" s="78"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="H41" s="30">
+        <v>0.72320966350301996</v>
+      </c>
+      <c r="I41" s="31">
+        <v>0.88576561344182603</v>
+      </c>
+      <c r="J41" s="32">
+        <v>0.79627606516885996</v>
+      </c>
+      <c r="K41" s="9"/>
+      <c r="L41" s="82"/>
+      <c r="M41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N41">
+        <v>1727</v>
+      </c>
+      <c r="O41">
+        <v>66844</v>
+      </c>
+      <c r="P41">
+        <v>871</v>
+      </c>
+      <c r="Q41" s="5"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="V41" s="30">
+        <v>0.751094196003806</v>
+      </c>
+      <c r="W41" s="31">
+        <v>0.72223238792314703</v>
+      </c>
+      <c r="X41" s="32">
+        <v>0.73638059701492498</v>
+      </c>
+      <c r="Y41" s="9"/>
+      <c r="Z41" s="82"/>
+      <c r="AA41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB41">
+        <v>7420</v>
+      </c>
+      <c r="AC41">
+        <v>20680</v>
+      </c>
+      <c r="AD41">
+        <v>120</v>
+      </c>
+      <c r="AE41" s="5"/>
+      <c r="AG41" s="76"/>
+      <c r="AH41" s="76"/>
+      <c r="AI41" s="44" t="s">
+        <v>5</v>
+      </c>
+      <c r="AJ41" s="30">
+        <v>0.78086719813338501</v>
+      </c>
+      <c r="AK41" s="31">
+        <v>0.69301121656600495</v>
+      </c>
+      <c r="AL41" s="32">
+        <v>0.73432071676723398</v>
+      </c>
+      <c r="AM41" s="9"/>
+      <c r="AN41" s="82"/>
+      <c r="AO41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP41">
+        <v>9120</v>
+      </c>
+      <c r="AQ41">
+        <v>26094</v>
+      </c>
+      <c r="AR41">
+        <v>445</v>
+      </c>
+      <c r="AS41" s="5"/>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A42" s="83"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="82"/>
+      <c r="M42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N42">
+        <v>882</v>
+      </c>
+      <c r="O42">
+        <v>2326</v>
+      </c>
+      <c r="P42">
+        <v>8382</v>
+      </c>
+      <c r="Q42" s="5"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="44"/>
+      <c r="V42" s="33"/>
+      <c r="W42" s="34"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="9"/>
+      <c r="Z42" s="82"/>
+      <c r="AA42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB42">
+        <v>1032</v>
+      </c>
+      <c r="AC42">
+        <v>276</v>
+      </c>
+      <c r="AD42">
+        <v>3947</v>
+      </c>
+      <c r="AE42" s="5"/>
+      <c r="AG42" s="76"/>
+      <c r="AH42" s="76"/>
+      <c r="AI42" s="44"/>
+      <c r="AJ42" s="33"/>
+      <c r="AK42" s="34"/>
+      <c r="AL42" s="35"/>
+      <c r="AM42" s="9"/>
+      <c r="AN42" s="82"/>
+      <c r="AO42" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP42">
+        <v>920</v>
+      </c>
+      <c r="AQ42">
+        <v>207</v>
+      </c>
+      <c r="AR42">
+        <v>4016</v>
+      </c>
+      <c r="AS42" s="5"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A43" s="83"/>
+      <c r="B43" s="78"/>
+      <c r="C43" s="78"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
+      <c r="L43" s="82"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="16"/>
+      <c r="O43" s="16"/>
+      <c r="P43" s="16"/>
+      <c r="Q43" s="17"/>
+      <c r="S43" s="76"/>
+      <c r="T43" s="76"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
+      <c r="W43" s="16"/>
+      <c r="X43" s="16"/>
+      <c r="Y43" s="16"/>
+      <c r="Z43" s="82"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="16"/>
+      <c r="AC43" s="16"/>
+      <c r="AD43" s="16"/>
+      <c r="AE43" s="17"/>
+      <c r="AG43" s="76"/>
+      <c r="AH43" s="76"/>
+      <c r="AI43" s="16"/>
+      <c r="AJ43" s="16"/>
+      <c r="AK43" s="16"/>
+      <c r="AL43" s="16"/>
+      <c r="AM43" s="16"/>
+      <c r="AN43" s="82"/>
+      <c r="AO43" s="6"/>
+      <c r="AP43" s="16"/>
+      <c r="AQ43" s="16"/>
+      <c r="AR43" s="16"/>
+      <c r="AS43" s="17"/>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G46" s="1"/>
+      <c r="H46" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" s="1"/>
+      <c r="N46" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="O46" s="77"/>
+      <c r="P46" s="77"/>
+      <c r="Q46" s="77"/>
+      <c r="S46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A47" s="78" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="78"/>
+      <c r="D47" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="E47" s="68"/>
+      <c r="F47" s="68"/>
+      <c r="G47" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H47" s="27"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="9"/>
+      <c r="N47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O47" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="P47" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q47" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A48" s="78"/>
+      <c r="B48" s="78"/>
+      <c r="C48" s="78"/>
+      <c r="D48" s="78"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="68"/>
+      <c r="G48" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H48" s="30"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="32"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="70" t="s">
+        <v>12</v>
+      </c>
+      <c r="M48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N48" s="12"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="14"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" s="78"/>
+      <c r="B49" s="78"/>
+      <c r="C49" s="78"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="68"/>
+      <c r="F49" s="68"/>
+      <c r="G49" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="30"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="71"/>
+      <c r="M49" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="N49" s="4"/>
+      <c r="Q49" s="5"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" s="78"/>
+      <c r="B50" s="78"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H50" s="33"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="71"/>
+      <c r="M50" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="N50" s="4"/>
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" s="78"/>
+      <c r="B51" s="78"/>
+      <c r="C51" s="78"/>
+      <c r="D51" s="78"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="68"/>
+      <c r="L51" s="72"/>
+      <c r="M51" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N51" s="15"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="17"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="E53" s="77"/>
+      <c r="F53" s="77"/>
+      <c r="G53" s="77" t="s">
+        <v>10</v>
+      </c>
+      <c r="H53" s="77"/>
+      <c r="I53" s="77"/>
+      <c r="J53" s="77" t="s">
+        <v>5</v>
+      </c>
+      <c r="K53" s="77"/>
+      <c r="L53" s="77"/>
+      <c r="M53" s="77" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" s="77"/>
+      <c r="O53" s="77"/>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B54" s="36"/>
+      <c r="C54" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="E54" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F54" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="G54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="H54" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="I54" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="L54" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="M54" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N54" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O54" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="45">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="D55" s="37">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="E55" s="38">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="F55" s="39">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="G55" s="38">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="H55" s="38">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="I55" s="38">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="J55" s="37">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="K55" s="38">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="L55" s="39">
+        <v>0.86199999999999999</v>
+      </c>
+      <c r="M55" s="38">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="N55" s="38">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="O55" s="39">
+        <v>0.11899999999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="40">
+        <v>0.94802088560964404</v>
+      </c>
+      <c r="D56" s="40">
+        <v>0.97057289443986094</v>
+      </c>
+      <c r="E56" s="41">
+        <v>0.96829556743459999</v>
+      </c>
+      <c r="F56" s="42">
+        <v>0.96943289350295103</v>
+      </c>
+      <c r="G56" s="41">
+        <v>0.92343823391263502</v>
+      </c>
+      <c r="H56" s="41">
+        <v>0.962587483079404</v>
+      </c>
+      <c r="I56" s="41">
+        <v>0.942606537496122</v>
+      </c>
+      <c r="J56" s="40">
+        <v>0.88483057109680097</v>
+      </c>
+      <c r="K56" s="41">
+        <v>0.72320966350301996</v>
+      </c>
+      <c r="L56" s="42">
+        <v>0.79589802022503897</v>
+      </c>
+      <c r="M56" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="1" t="s">
+      <c r="N56" s="41">
         <v>0</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="O56" s="42" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D59" s="77" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="77"/>
+      <c r="F59" s="77"/>
+      <c r="G59" s="77"/>
+      <c r="H59" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="I59" s="77"/>
+      <c r="J59" s="77"/>
+      <c r="K59" s="77"/>
+      <c r="L59" s="77" t="s">
+        <v>35</v>
+      </c>
+      <c r="M59" s="77"/>
+      <c r="N59" s="77"/>
+      <c r="O59" s="77"/>
+      <c r="P59" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q59" s="77"/>
+      <c r="R59" s="77"/>
+      <c r="S59" s="77"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="D60" s="53" t="s">
+        <v>0</v>
+      </c>
+      <c r="E60" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="G60" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="H60" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="I60" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J60" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="K60" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="L60" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="M60" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="N60" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="O60" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="P60" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="R60" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="S60" s="46" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B61" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="84">
+        <v>0.95096049312632902</v>
+      </c>
+      <c r="E61" s="37">
+        <v>0.97514125370403903</v>
+      </c>
+      <c r="F61" s="38">
+        <v>0.96829556743459999</v>
+      </c>
+      <c r="G61" s="38">
+        <v>0.97170635372754499</v>
+      </c>
+      <c r="H61" s="60">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="I61" s="38">
+        <v>0.80212576672753699</v>
+      </c>
+      <c r="J61" s="38">
+        <v>0.90895102668859795</v>
+      </c>
+      <c r="K61" s="38">
+        <v>0.85220376081981897</v>
+      </c>
+      <c r="L61" s="60">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="M61" s="38">
+        <v>0.75944029135518498</v>
+      </c>
+      <c r="N61" s="38">
+        <v>0.91464188838229399</v>
+      </c>
+      <c r="O61" s="39">
+        <v>0.82984683859143904</v>
+      </c>
+      <c r="P61" s="60">
+        <f>AVERAGE(H61,L61)</f>
+        <v>0.82330000000000003</v>
+      </c>
+      <c r="Q61" s="38">
+        <f>AVERAGE(I61,M61)</f>
+        <v>0.78078302904136099</v>
+      </c>
+      <c r="R61" s="38">
+        <f t="shared" ref="R61:S61" si="0">AVERAGE(J61,N61)</f>
+        <v>0.91179645753544603</v>
+      </c>
+      <c r="S61" s="39">
+        <f t="shared" si="0"/>
+        <v>0.841025299705629</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B62" s="64"/>
+      <c r="C62" s="58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="66"/>
+      <c r="E62" s="55">
+        <v>0.92439601167180696</v>
+      </c>
+      <c r="F62" s="54">
+        <v>0.962587483079404</v>
+      </c>
+      <c r="G62" s="54">
+        <v>0.94310526055886001</v>
+      </c>
+      <c r="H62" s="61"/>
+      <c r="I62" s="54">
+        <v>0.89952153110047905</v>
+      </c>
+      <c r="J62" s="54">
+        <v>0.73281360737065904</v>
+      </c>
+      <c r="K62" s="54">
+        <v>0.80765475493067795</v>
+      </c>
+      <c r="L62" s="61"/>
+      <c r="M62" s="54">
+        <v>0.93443151298119997</v>
+      </c>
+      <c r="N62" s="54">
+        <v>0.731744251261918</v>
+      </c>
+      <c r="O62" s="49">
+        <v>0.82075961311630097</v>
+      </c>
+      <c r="P62" s="61"/>
+      <c r="Q62" s="54">
+        <f t="shared" ref="Q62:Q63" si="1">AVERAGE(I62,M62)</f>
+        <v>0.91697652204083946</v>
+      </c>
+      <c r="R62" s="54">
+        <f t="shared" ref="R62:R64" si="2">AVERAGE(J62,N62)</f>
+        <v>0.73227892931628857</v>
+      </c>
+      <c r="S62" s="49">
+        <f t="shared" ref="S62:S64" si="3">AVERAGE(K62,O62)</f>
+        <v>0.81420718402348946</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B63" s="65"/>
+      <c r="C63" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" s="67"/>
+      <c r="E63" s="40">
+        <v>0.88576561344182603</v>
+      </c>
+      <c r="F63" s="41">
+        <v>0.72320966350301996</v>
+      </c>
+      <c r="G63" s="41">
+        <v>0.79627606516885996</v>
+      </c>
+      <c r="H63" s="62"/>
+      <c r="I63" s="41">
+        <v>0.72223238792314703</v>
+      </c>
+      <c r="J63" s="41">
+        <v>0.751094196003806</v>
+      </c>
+      <c r="K63" s="41">
+        <v>0.73638059701492498</v>
+      </c>
+      <c r="L63" s="62"/>
+      <c r="M63" s="41">
+        <v>0.69301121656600495</v>
+      </c>
+      <c r="N63" s="41">
+        <v>0.78086719813338501</v>
+      </c>
+      <c r="O63" s="42">
+        <v>0.73432071676723398</v>
+      </c>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="41">
+        <f t="shared" si="1"/>
+        <v>0.70762180224457594</v>
+      </c>
+      <c r="R63" s="41">
+        <f t="shared" si="2"/>
+        <v>0.76598069706859551</v>
+      </c>
+      <c r="S63" s="42">
+        <f t="shared" si="3"/>
+        <v>0.73535065689107948</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B64" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" s="84">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="E64" s="55">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F64" s="54">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="G64" s="49">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="H64" s="68">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="I64" s="55">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J64" s="54">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="K64" s="49">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="L64" s="68">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="M64" s="55">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="N64" s="54">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="O64" s="49">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="P64" s="60">
+        <f>AVERAGE(H64,L64)</f>
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="Q64" s="38">
+        <f>AVERAGE(I64,M64)</f>
+        <v>0.98649999999999993</v>
+      </c>
+      <c r="R64" s="38">
+        <f t="shared" si="2"/>
+        <v>0.94100000000000006</v>
+      </c>
+      <c r="S64" s="39">
+        <f t="shared" si="3"/>
+        <v>0.96299999999999997</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B65" s="64"/>
+      <c r="C65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" s="66"/>
+      <c r="E65" s="55">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F65" s="54">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="G65" s="49">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="H65" s="68"/>
+      <c r="I65" s="55">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="J65" s="54">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="K65" s="49">
+        <v>0.94599999999999995</v>
+      </c>
+      <c r="L65" s="68"/>
+      <c r="M65" s="55">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="N65" s="54">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="O65" s="49">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="P65" s="61"/>
+      <c r="Q65" s="54">
+        <f>AVERAGE(I65,M65)</f>
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="R65" s="54">
+        <f>AVERAGE(J65,N65)</f>
+        <v>0.96350000000000002</v>
+      </c>
+      <c r="S65" s="49">
+        <f>AVERAGE(K65,O65)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B66" s="65"/>
+      <c r="C66" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" s="67"/>
+      <c r="E66" s="40">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="F66" s="41">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G66" s="42">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="H66" s="69"/>
+      <c r="I66" s="40">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="J66" s="41">
+        <v>0.95399999999999996</v>
+      </c>
+      <c r="K66" s="42">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="L66" s="69"/>
+      <c r="M66" s="40">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="N66" s="41">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="O66" s="42">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="P66" s="62"/>
+      <c r="Q66" s="41">
+        <f>AVERAGE(I66,M66)</f>
+        <v>0.82650000000000001</v>
+      </c>
+      <c r="R66" s="41">
+        <f>AVERAGE(J66,N66)</f>
+        <v>0.96249999999999991</v>
+      </c>
+      <c r="S66" s="42">
+        <f t="shared" ref="S66:S67" si="4">AVERAGE(K66,O66)</f>
+        <v>0.88850000000000007</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B67" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D67" s="60">
+        <v>0.94799999999999995</v>
+      </c>
+      <c r="E67" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="F67" s="54">
+        <v>0</v>
+      </c>
+      <c r="G67" s="54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H67" s="60">
+        <v>0.68167824074074101</v>
+      </c>
+      <c r="I67" s="54">
         <v>1</v>
       </c>
-      <c r="G37" s="1"/>
-      <c r="H37" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="I37" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="J37" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="K37" s="1"/>
-      <c r="N37" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="O37" s="55"/>
-      <c r="P37" s="55"/>
-      <c r="Q37" s="55"/>
-      <c r="S37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A38" s="53" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="53" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53" t="s">
-        <v>19</v>
-      </c>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="27"/>
-      <c r="I38" s="28"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="9"/>
-      <c r="N38" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="O38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P38" s="6" t="s">
+      <c r="J67" s="54">
+        <v>5.2524456700150999E-4</v>
+      </c>
+      <c r="K67" s="54">
+        <v>1.04993765995144E-3</v>
+      </c>
+      <c r="L67" s="60">
+        <v>0.71542824074074096</v>
+      </c>
+      <c r="M67" s="54">
+        <v>0.875</v>
+      </c>
+      <c r="N67" s="54">
+        <v>6.3967833318102896E-4</v>
+      </c>
+      <c r="O67" s="49">
+        <v>1.2784220619121501E-3</v>
+      </c>
+      <c r="P67" s="60">
+        <f>AVERAGE(H67,L67)</f>
+        <v>0.69855324074074099</v>
+      </c>
+      <c r="Q67" s="54">
+        <f>AVERAGE(I67,M67)</f>
+        <v>0.9375</v>
+      </c>
+      <c r="R67" s="54">
+        <f t="shared" ref="R67" si="5">AVERAGE(J67,N67)</f>
+        <v>5.8246145009126942E-4</v>
+      </c>
+      <c r="S67" s="49">
+        <f t="shared" si="4"/>
+        <v>1.164179860931795E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B68" s="64"/>
+      <c r="C68" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="61"/>
+      <c r="E68" s="54">
+        <v>0.97057289443986094</v>
+      </c>
+      <c r="F68" s="54">
+        <v>0.96829556743459999</v>
+      </c>
+      <c r="G68" s="54">
+        <v>0.96943289350295103</v>
+      </c>
+      <c r="H68" s="61"/>
+      <c r="I68" s="54">
+        <v>0.66534615011166098</v>
+      </c>
+      <c r="J68" s="54">
+        <v>0.90895102668859795</v>
+      </c>
+      <c r="K68" s="54">
+        <v>0.76830102366883801</v>
+      </c>
+      <c r="L68" s="61"/>
+      <c r="M68" s="54">
+        <v>0.61551606952131299</v>
+      </c>
+      <c r="N68" s="54">
+        <v>0.91464188838229399</v>
+      </c>
+      <c r="O68" s="49">
+        <v>0.73584139107824797</v>
+      </c>
+      <c r="P68" s="61"/>
+      <c r="Q68" s="54">
+        <f t="shared" ref="Q68:Q70" si="6">AVERAGE(I68,M68)</f>
+        <v>0.64043110981648699</v>
+      </c>
+      <c r="R68" s="54">
+        <f t="shared" ref="R68:R71" si="7">AVERAGE(J68,N68)</f>
+        <v>0.91179645753544603</v>
+      </c>
+      <c r="S68" s="49">
+        <f t="shared" ref="S68:S71" si="8">AVERAGE(K68,O68)</f>
+        <v>0.75207120737354294</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B69" s="64"/>
+      <c r="C69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="61"/>
+      <c r="E69" s="54">
+        <v>0.92343823391263502</v>
+      </c>
+      <c r="F69" s="54">
+        <v>0.962587483079404</v>
+      </c>
+      <c r="G69" s="54">
+        <v>0.942606537496122</v>
+      </c>
+      <c r="H69" s="61"/>
+      <c r="I69" s="54">
+        <v>0.72055749128919899</v>
+      </c>
+      <c r="J69" s="54">
+        <v>0.73281360737065904</v>
+      </c>
+      <c r="K69" s="54">
+        <v>0.72663387210119501</v>
+      </c>
+      <c r="L69" s="61"/>
+      <c r="M69" s="54">
+        <v>0.90919860627177695</v>
+      </c>
+      <c r="N69" s="54">
+        <v>0.731744251261918</v>
+      </c>
+      <c r="O69" s="49">
+        <v>0.81087632069608495</v>
+      </c>
+      <c r="P69" s="61"/>
+      <c r="Q69" s="54">
+        <f t="shared" si="6"/>
+        <v>0.81487804878048797</v>
+      </c>
+      <c r="R69" s="54">
+        <f>AVERAGE(J69,N69)</f>
+        <v>0.73227892931628857</v>
+      </c>
+      <c r="S69" s="49">
+        <f t="shared" si="8"/>
+        <v>0.76875509639864004</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B70" s="65"/>
+      <c r="C70" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="Q38" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A39" s="53"/>
-      <c r="B39" s="53"/>
-      <c r="C39" s="53"/>
-      <c r="D39" s="53"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="54"/>
-      <c r="G39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="H39" s="30"/>
-      <c r="I39" s="31"/>
-      <c r="J39" s="32"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="M39" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="N39" s="12"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="14"/>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A40" s="53"/>
-      <c r="B40" s="53"/>
-      <c r="C40" s="53"/>
-      <c r="D40" s="53"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="G40" s="10" t="s">
+      <c r="D70" s="62"/>
+      <c r="E70" s="54">
+        <v>0.88483057109680097</v>
+      </c>
+      <c r="F70" s="54">
+        <v>0.72320966350301996</v>
+      </c>
+      <c r="G70" s="54">
+        <v>0.79589802022503897</v>
+      </c>
+      <c r="H70" s="62"/>
+      <c r="I70" s="54">
+        <v>0.63692109085041204</v>
+      </c>
+      <c r="J70" s="54">
+        <v>0.751094196003806</v>
+      </c>
+      <c r="K70" s="54">
+        <v>0.68931191058330399</v>
+      </c>
+      <c r="L70" s="62"/>
+      <c r="M70" s="54">
+        <v>0.64805551073099898</v>
+      </c>
+      <c r="N70" s="54">
+        <v>0.78086719813338501</v>
+      </c>
+      <c r="O70" s="49">
+        <v>0.70828924162257501</v>
+      </c>
+      <c r="P70" s="62"/>
+      <c r="Q70" s="54">
+        <f t="shared" si="6"/>
+        <v>0.64248830079070551</v>
+      </c>
+      <c r="R70" s="54">
+        <f t="shared" si="7"/>
+        <v>0.76598069706859551</v>
+      </c>
+      <c r="S70" s="49">
+        <f t="shared" si="8"/>
+        <v>0.69880057610293944</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B71" s="63" t="s">
+        <v>39</v>
+      </c>
+      <c r="C71" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D71" s="66">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="E71" s="37">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F71" s="38">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="G71" s="39">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="H71" s="68">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="I71" s="37">
+        <v>0.502</v>
+      </c>
+      <c r="J71" s="38">
+        <v>0.185</v>
+      </c>
+      <c r="K71" s="39">
+        <v>0.27</v>
+      </c>
+      <c r="L71" s="68">
+        <v>0.84</v>
+      </c>
+      <c r="M71" s="37">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N71" s="38">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="O71" s="56">
+        <v>0.379</v>
+      </c>
+      <c r="P71" s="60">
+        <f>AVERAGE(H71,L71)</f>
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="Q71" s="37">
+        <f>AVERAGE(I71,M71)</f>
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="R71" s="38">
+        <f t="shared" si="7"/>
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="S71" s="39">
+        <f t="shared" si="8"/>
+        <v>0.32450000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B72" s="64"/>
+      <c r="C72" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" s="66"/>
+      <c r="E72" s="55">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F72" s="54">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="G72" s="49">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H72" s="68"/>
+      <c r="I72" s="55">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="J72" s="54">
+        <v>0.86399999999999999</v>
+      </c>
+      <c r="K72" s="49">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="L72" s="68"/>
+      <c r="M72" s="55">
+        <v>0.79600000000000004</v>
+      </c>
+      <c r="N72" s="54">
+        <v>0.88400000000000001</v>
+      </c>
+      <c r="O72" s="50">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="55">
+        <f t="shared" ref="Q72:Q74" si="9">AVERAGE(I72,M72)</f>
+        <v>0.82150000000000001</v>
+      </c>
+      <c r="R72" s="54">
+        <f t="shared" ref="R72" si="10">AVERAGE(J72,N72)</f>
+        <v>0.874</v>
+      </c>
+      <c r="S72" s="49">
+        <f t="shared" ref="S72:S74" si="11">AVERAGE(K72,O72)</f>
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B73" s="64"/>
+      <c r="C73" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="66"/>
+      <c r="E73" s="55">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="F73" s="54">
+        <v>0.95499999999999996</v>
+      </c>
+      <c r="G73" s="49">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="H73" s="68"/>
+      <c r="I73" s="55">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="J73" s="54">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="K73" s="49">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="L73" s="68"/>
+      <c r="M73" s="55">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="N73" s="54">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="O73" s="50">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="P73" s="61"/>
+      <c r="Q73" s="55">
+        <f t="shared" si="9"/>
+        <v>0.86</v>
+      </c>
+      <c r="R73" s="54">
+        <f>AVERAGE(J73,N73)</f>
+        <v>0.96150000000000002</v>
+      </c>
+      <c r="S73" s="49">
+        <f t="shared" si="11"/>
+        <v>0.90500000000000003</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B74" s="65"/>
+      <c r="C74" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="H40" s="30"/>
-      <c r="I40" s="31"/>
-      <c r="J40" s="32"/>
-      <c r="K40" s="11"/>
-      <c r="L40" s="57"/>
-      <c r="M40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="N40" s="4"/>
-      <c r="Q40" s="5"/>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A41" s="53"/>
-      <c r="B41" s="53"/>
-      <c r="C41" s="53"/>
-      <c r="D41" s="53"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="11"/>
-      <c r="L41" s="57"/>
-      <c r="M41" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="N41" s="4"/>
-      <c r="Q41" s="5"/>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A42" s="53"/>
-      <c r="B42" s="53"/>
-      <c r="C42" s="53"/>
-      <c r="D42" s="53"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="54"/>
-      <c r="L42" s="58"/>
-      <c r="M42" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="N42" s="15"/>
-      <c r="O42" s="16"/>
-      <c r="P42" s="16"/>
-      <c r="Q42" s="17"/>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B44" s="8"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="55" t="s">
-        <v>11</v>
-      </c>
-      <c r="E44" s="55"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="55" t="s">
-        <v>12</v>
-      </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="55"/>
-      <c r="J44" s="55" t="s">
-        <v>5</v>
-      </c>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55" t="s">
-        <v>32</v>
-      </c>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B45" s="36"/>
-      <c r="C45" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="D45" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="F45" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="G45" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="H45" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="I45" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="K45" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="L45" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="M45" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" s="46" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C46" s="45">
-        <v>0.92200000000000004</v>
-      </c>
-      <c r="D46" s="37">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="E46" s="38">
-        <v>0.90300000000000002</v>
-      </c>
-      <c r="F46" s="39">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="G46" s="38">
-        <v>0.92900000000000005</v>
-      </c>
-      <c r="H46" s="38">
-        <v>0.95499999999999996</v>
-      </c>
-      <c r="I46" s="38">
-        <v>0.94199999999999995</v>
-      </c>
-      <c r="J46" s="37">
+      <c r="D74" s="67"/>
+      <c r="E74" s="40">
         <v>0.82699999999999996</v>
       </c>
-      <c r="K46" s="38">
+      <c r="F74" s="41">
         <v>0.89900000000000002</v>
       </c>
-      <c r="L46" s="39">
+      <c r="G74" s="42">
         <v>0.86199999999999999</v>
       </c>
-      <c r="M46" s="38">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="N46" s="38">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="O46" s="39">
-        <v>0.11899999999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C47" s="40">
-        <v>0.94802088560964404</v>
-      </c>
-      <c r="D47" s="40">
-        <v>0.97057289443986094</v>
-      </c>
-      <c r="E47" s="41">
-        <v>0.96829556743459999</v>
-      </c>
-      <c r="F47" s="42">
-        <v>0.96943289350295103</v>
-      </c>
-      <c r="G47" s="41">
-        <v>0.92343823391263502</v>
-      </c>
-      <c r="H47" s="41">
-        <v>0.962587483079404</v>
-      </c>
-      <c r="I47" s="41">
-        <v>0.942606537496122</v>
-      </c>
-      <c r="J47" s="40">
-        <v>0.88483057109680097</v>
-      </c>
-      <c r="K47" s="41">
-        <v>0.72320966350301996</v>
-      </c>
-      <c r="L47" s="42">
-        <v>0.79589802022503897</v>
-      </c>
-      <c r="M47" s="41" t="s">
-        <v>26</v>
-      </c>
-      <c r="N47" s="41">
-        <v>0</v>
-      </c>
-      <c r="O47" s="42" t="s">
-        <v>26</v>
+      <c r="H74" s="69"/>
+      <c r="I74" s="40">
+        <v>0.748</v>
+      </c>
+      <c r="J74" s="41">
+        <v>0.95</v>
+      </c>
+      <c r="K74" s="42">
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="L74" s="69"/>
+      <c r="M74" s="40">
+        <v>0.746</v>
+      </c>
+      <c r="N74" s="41">
+        <v>0.96699999999999997</v>
+      </c>
+      <c r="O74" s="52">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="P74" s="62"/>
+      <c r="Q74" s="40">
+        <f t="shared" si="9"/>
+        <v>0.747</v>
+      </c>
+      <c r="R74" s="41">
+        <f t="shared" ref="R74" si="12">AVERAGE(J74,N74)</f>
+        <v>0.95849999999999991</v>
+      </c>
+      <c r="S74" s="42">
+        <f t="shared" si="11"/>
+        <v>0.83749999999999991</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="55">
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="J44:L44"/>
-    <mergeCell ref="M44:O44"/>
+  <mergeCells count="98">
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="H61:H63"/>
+    <mergeCell ref="L61:L63"/>
+    <mergeCell ref="S39:S43"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="N46:Q46"/>
+    <mergeCell ref="AG37:AS37"/>
+    <mergeCell ref="N38:Q38"/>
+    <mergeCell ref="AB38:AE38"/>
+    <mergeCell ref="AP38:AS38"/>
+    <mergeCell ref="A39:A43"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="C39:C43"/>
+    <mergeCell ref="D39:D43"/>
+    <mergeCell ref="E39:E43"/>
+    <mergeCell ref="AN40:AN43"/>
+    <mergeCell ref="T39:T43"/>
+    <mergeCell ref="AG39:AG43"/>
+    <mergeCell ref="AH39:AH43"/>
+    <mergeCell ref="Z40:Z43"/>
+    <mergeCell ref="E28:Q28"/>
+    <mergeCell ref="S28:AE28"/>
+    <mergeCell ref="AB29:AE29"/>
+    <mergeCell ref="S30:S34"/>
+    <mergeCell ref="T30:T34"/>
+    <mergeCell ref="Z31:Z34"/>
     <mergeCell ref="N29:Q29"/>
     <mergeCell ref="F30:F34"/>
     <mergeCell ref="L31:L34"/>
-    <mergeCell ref="N37:Q37"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="L39:L42"/>
-    <mergeCell ref="A30:A34"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="C30:C34"/>
-    <mergeCell ref="D30:D34"/>
-    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="AG28:AS28"/>
+    <mergeCell ref="AP29:AS29"/>
+    <mergeCell ref="AG30:AG34"/>
+    <mergeCell ref="AH30:AH34"/>
+    <mergeCell ref="AN31:AN34"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="B47:B51"/>
+    <mergeCell ref="C47:C51"/>
+    <mergeCell ref="D47:D51"/>
+    <mergeCell ref="E47:E51"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D21:D25"/>
+    <mergeCell ref="E21:E25"/>
+    <mergeCell ref="F21:F25"/>
+    <mergeCell ref="L22:L25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="B13:B17"/>
+    <mergeCell ref="D13:D17"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="F13:F17"/>
+    <mergeCell ref="L14:L17"/>
+    <mergeCell ref="C13:C17"/>
     <mergeCell ref="N4:Q4"/>
     <mergeCell ref="L6:L9"/>
     <mergeCell ref="A5:A9"/>
@@ -2443,38 +3912,40 @@
     <mergeCell ref="E5:E9"/>
     <mergeCell ref="F5:F9"/>
     <mergeCell ref="C5:C9"/>
-    <mergeCell ref="N12:Q12"/>
-    <mergeCell ref="A13:A17"/>
-    <mergeCell ref="B13:B17"/>
-    <mergeCell ref="D13:D17"/>
-    <mergeCell ref="E13:E17"/>
-    <mergeCell ref="F13:F17"/>
-    <mergeCell ref="L14:L17"/>
-    <mergeCell ref="C13:C17"/>
-    <mergeCell ref="N20:Q20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D21:D25"/>
-    <mergeCell ref="E21:E25"/>
-    <mergeCell ref="F21:F25"/>
-    <mergeCell ref="L22:L25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D38:D42"/>
-    <mergeCell ref="E38:E42"/>
-    <mergeCell ref="AG28:AS28"/>
-    <mergeCell ref="AP29:AS29"/>
-    <mergeCell ref="AG30:AG34"/>
-    <mergeCell ref="AH30:AH34"/>
-    <mergeCell ref="AN31:AN34"/>
-    <mergeCell ref="E28:Q28"/>
-    <mergeCell ref="S28:AE28"/>
-    <mergeCell ref="AB29:AE29"/>
-    <mergeCell ref="S30:S34"/>
-    <mergeCell ref="T30:T34"/>
-    <mergeCell ref="Z31:Z34"/>
+    <mergeCell ref="A30:A34"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="C30:C34"/>
+    <mergeCell ref="D30:D34"/>
+    <mergeCell ref="E30:E34"/>
+    <mergeCell ref="F47:F51"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="E37:Q37"/>
+    <mergeCell ref="F39:F43"/>
+    <mergeCell ref="D59:G59"/>
+    <mergeCell ref="H59:K59"/>
+    <mergeCell ref="L59:O59"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="G53:I53"/>
+    <mergeCell ref="J53:L53"/>
+    <mergeCell ref="M53:O53"/>
+    <mergeCell ref="P59:S59"/>
+    <mergeCell ref="S37:AE37"/>
+    <mergeCell ref="P61:P63"/>
+    <mergeCell ref="P64:P66"/>
+    <mergeCell ref="P67:P70"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="D71:D74"/>
+    <mergeCell ref="H71:H74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="D67:D70"/>
+    <mergeCell ref="H67:H70"/>
+    <mergeCell ref="L67:L70"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="D64:D66"/>
+    <mergeCell ref="H64:H66"/>
+    <mergeCell ref="L64:L66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2483,125 +3954,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3CBD40-771D-4A6C-933F-F358A1E28A99}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A5:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A3:F8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>100794</v>
-      </c>
-      <c r="D5">
-        <v>4655</v>
-      </c>
-      <c r="E5">
-        <v>246</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>10489</v>
-      </c>
-      <c r="D6">
-        <v>58392</v>
-      </c>
-      <c r="E6">
-        <v>561</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>6741</v>
-      </c>
-      <c r="D7">
-        <v>1450</v>
-      </c>
-      <c r="E7">
-        <v>3399</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>526</v>
-      </c>
-      <c r="D8">
-        <v>51</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="47"/>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="47"/>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="47"/>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="C3:F3"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
